--- a/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/Carb_Peak_fits.xlsx
+++ b/Version_on_pcloud/Data/Data_KS24-628/K24-628_011725/Carb_Peak_fits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,40 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>65 KD24_c024_a1_FIA.txt</t>
+          <t>66 FG04-A1-4-end_r4.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1093.220728386386</v>
+        <v>1090.494364906907</v>
       </c>
       <c r="C2" t="n">
-        <v>2034.22429233998</v>
+        <v>969.5963510303176</v>
       </c>
       <c r="D2" t="n">
-        <v>93.76512641075169</v>
+        <v>61.35607803857511</v>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Spline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>66 FG04-A1-4-end_r4.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1090.53278682983</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1051.457562300246</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63.38607450060908</v>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>Spline</t>
         </is>
